--- a/data/administracion_de_tribunales/tribCasosCrim21.xlsx
+++ b/data/administracion_de_tribunales/tribCasosCrim21.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.santiago\Documents\Aplicacion Indicadores PARE\data\administracion_de_tribunales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixbaez822/Desktop/ViolenciaGeneroPR/data/administracion_de_tribunales/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB25461-7B89-FB4D-894F-BF330621FB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23900" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Pendiente al inicio</t>
   </si>
@@ -93,20 +105,17 @@
   </si>
   <si>
     <t>Año fiscal/delitos</t>
-  </si>
-  <si>
-    <t>2021-2022*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,12 +131,6 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,8 +156,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -435,25 +438,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="58.5" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.5" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -488,384 +491,352 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>535</v>
+      </c>
+      <c r="D3" s="1">
+        <v>541</v>
+      </c>
+      <c r="E3" s="1">
+        <v>74</v>
+      </c>
+      <c r="F3" s="1">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
+        <v>188</v>
+      </c>
+      <c r="K3" s="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>93</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1404</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1497</v>
+      </c>
+      <c r="E4" s="1">
+        <v>857</v>
+      </c>
+      <c r="F4" s="1">
+        <v>174</v>
+      </c>
+      <c r="G4" s="1">
+        <v>354</v>
+      </c>
+      <c r="H4" s="1">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1410</v>
+      </c>
+      <c r="K4" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1">
+        <v>641</v>
+      </c>
+      <c r="D5" s="1">
+        <v>679</v>
+      </c>
+      <c r="E5" s="1">
+        <v>202</v>
+      </c>
+      <c r="F5" s="1">
+        <v>66</v>
+      </c>
+      <c r="G5" s="1">
+        <v>120</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>396</v>
+      </c>
+      <c r="K5" s="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <v>23</v>
       </c>
-      <c r="B2" s="2">
-        <v>1110</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2997</v>
-      </c>
-      <c r="D2" s="2">
-        <v>4107</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1961</v>
-      </c>
-      <c r="F2" s="2">
-        <v>300</v>
-      </c>
-      <c r="G2" s="2">
-        <v>658</v>
-      </c>
-      <c r="H2" s="2">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2">
-        <v>26</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2960</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="E8" s="1">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <v>23</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B9" s="1">
+        <v>796</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>805</v>
+      </c>
+      <c r="E9" s="1">
+        <v>741</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
         <v>59</v>
       </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2">
-        <v>7</v>
-      </c>
-      <c r="K3" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>805</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>44</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1">
+        <v>328</v>
+      </c>
+      <c r="D13" s="1">
+        <v>413</v>
+      </c>
+      <c r="E13" s="1">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>535</v>
-      </c>
-      <c r="D4" s="2">
-        <v>541</v>
-      </c>
-      <c r="E4" s="2">
-        <v>74</v>
-      </c>
-      <c r="F4" s="2">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2">
-        <v>74</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2">
-        <v>188</v>
-      </c>
-      <c r="K4" s="2">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2">
-        <v>93</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1404</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1497</v>
-      </c>
-      <c r="E5" s="2">
-        <v>857</v>
-      </c>
-      <c r="F5" s="2">
-        <v>174</v>
-      </c>
-      <c r="G5" s="2">
-        <v>354</v>
-      </c>
-      <c r="H5" s="2">
-        <v>11</v>
-      </c>
-      <c r="I5" s="2">
-        <v>14</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1410</v>
-      </c>
-      <c r="K5" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2">
-        <v>641</v>
-      </c>
-      <c r="D6" s="2">
-        <v>679</v>
-      </c>
-      <c r="E6" s="2">
-        <v>202</v>
-      </c>
-      <c r="F6" s="2">
-        <v>66</v>
-      </c>
-      <c r="G6" s="2">
-        <v>120</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>6</v>
-      </c>
-      <c r="J6" s="2">
-        <v>396</v>
-      </c>
-      <c r="K6" s="2">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2">
-        <v>23</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2">
-        <v>796</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2">
-        <v>805</v>
-      </c>
-      <c r="E10" s="2">
-        <v>741</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>59</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2">
-        <v>5</v>
-      </c>
-      <c r="J10" s="2">
-        <v>805</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F13" s="1">
         <v>18</v>
       </c>
-      <c r="B11" s="2">
-        <v>44</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
-        <v>44</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="G13" s="1">
         <v>43</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <v>44</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2">
-        <v>3</v>
-      </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2">
-        <v>85</v>
-      </c>
-      <c r="C14" s="2">
-        <v>328</v>
-      </c>
-      <c r="D14" s="2">
-        <v>413</v>
-      </c>
-      <c r="E14" s="2">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2">
-        <v>18</v>
-      </c>
-      <c r="G14" s="2">
-        <v>43</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2">
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
         <v>73</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K13" s="1">
         <v>340</v>
       </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
